--- a/ASSETS/Нормалізація таблиць.xlsx
+++ b/ASSETS/Нормалізація таблиць.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>Номер_замовлення</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>ID_клієнта</t>
+  </si>
+  <si>
+    <t>Таблиця "Деталі замовлення"</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,6 +246,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D51" activeCellId="1" sqref="F47 D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -679,7 +700,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>20</v>
@@ -699,7 +720,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -719,7 +740,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -771,7 +792,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
@@ -782,7 +803,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
@@ -793,7 +814,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>20</v>
@@ -837,7 +858,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
@@ -851,7 +872,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>15</v>
@@ -865,7 +886,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>16</v>
@@ -969,18 +990,18 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -989,15 +1010,11 @@
       <c r="C46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+      <c r="A47" s="16">
         <v>101</v>
       </c>
       <c r="B47" s="13">
@@ -1006,16 +1023,12 @@
       <c r="C47" s="11">
         <v>100001</v>
       </c>
-      <c r="D47" s="4">
-        <v>3</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
-        <v>101</v>
+      <c r="A48" s="16">
+        <v>102</v>
       </c>
       <c r="B48" s="13">
         <v>1</v>
@@ -1023,16 +1036,12 @@
       <c r="C48" s="11">
         <v>100002</v>
       </c>
-      <c r="D48" s="4">
-        <v>2</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
-        <v>102</v>
+      <c r="A49" s="16">
+        <v>103</v>
       </c>
       <c r="B49" s="13">
         <v>2</v>
@@ -1040,16 +1049,12 @@
       <c r="C49" s="11">
         <v>100003</v>
       </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
-        <v>103</v>
+      <c r="A50" s="16">
+        <v>104</v>
       </c>
       <c r="B50" s="13">
         <v>3</v>
@@ -1057,15 +1062,82 @@
       <c r="C50" s="11">
         <v>100002</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="9"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="16">
+        <v>101</v>
+      </c>
+      <c r="B54" s="4">
+        <v>3</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="16">
+        <v>102</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="16">
+        <v>103</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="16">
+        <v>104</v>
+      </c>
+      <c r="B57" s="4">
         <v>4</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E51" s="8"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASSETS/Нормалізація таблиць.xlsx
+++ b/ASSETS/Нормалізація таблиць.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>Номер_замовлення</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Таблиця "Клієнт"</t>
   </si>
   <si>
-    <t>Прізвище</t>
-  </si>
-  <si>
     <t>Таблиця "Товар"</t>
   </si>
   <si>
@@ -121,13 +118,28 @@
   </si>
   <si>
     <t>Таблиця "Деталі замовлення"</t>
+  </si>
+  <si>
+    <t>ID_замовлення</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +171,21 @@
       <name val="Montserrat"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -181,7 +208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,9 +260,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -248,16 +272,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D51" activeCellId="1" sqref="F47 D51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -700,7 +727,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>20</v>
@@ -720,7 +747,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -740,7 +767,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -792,7 +819,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
@@ -803,7 +830,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
@@ -814,7 +841,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>20</v>
@@ -861,13 +888,13 @@
         <v>102</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -875,269 +902,260 @@
         <v>103</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27.75" x14ac:dyDescent="0.5">
+      <c r="A31" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
+        <v>100001</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
+        <v>100002</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
+        <v>100003</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="12">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="12">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="6" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="12">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="15">
+        <v>101</v>
+      </c>
+      <c r="C46" s="12">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="15">
+        <v>101</v>
+      </c>
+      <c r="C47" s="12">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="15">
+        <v>102</v>
+      </c>
+      <c r="C48" s="12">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>104</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="6" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="15">
+        <v>103</v>
+      </c>
+      <c r="C49" s="12">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="27.75" x14ac:dyDescent="0.5">
-      <c r="A32" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="11">
+      <c r="C52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="10">
         <v>100001</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="11">
-        <v>100002</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="11">
-        <v>100003</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="13">
-        <v>1</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="13">
-        <v>2</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="13">
-        <v>3</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="16">
-        <v>101</v>
-      </c>
-      <c r="B47" s="13">
-        <v>1</v>
-      </c>
-      <c r="C47" s="11">
-        <v>100001</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="16">
-        <v>102</v>
-      </c>
-      <c r="B48" s="13">
-        <v>1</v>
-      </c>
-      <c r="C48" s="11">
-        <v>100002</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="16">
-        <v>103</v>
-      </c>
-      <c r="B49" s="13">
-        <v>2</v>
-      </c>
-      <c r="C49" s="11">
-        <v>100003</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="16">
-        <v>104</v>
-      </c>
-      <c r="B50" s="13">
-        <v>3</v>
-      </c>
-      <c r="C50" s="11">
-        <v>100002</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="4">
         <v>3</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="16">
-        <v>101</v>
-      </c>
-      <c r="B54" s="4">
-        <v>3</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>11</v>
+      <c r="A54" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="10">
+        <v>100002</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="16">
-        <v>102</v>
-      </c>
-      <c r="B55" s="4">
-        <v>2</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>11</v>
+      <c r="A55" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="10">
+        <v>100003</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="16">
-        <v>103</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>12</v>
+      <c r="A56" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="10">
+        <v>100002</v>
+      </c>
+      <c r="C56" s="4">
+        <v>4</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="16">
-        <v>104</v>
-      </c>
-      <c r="B57" s="4">
-        <v>4</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
